--- a/spec.xlsx
+++ b/spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://officenationalstatistics-my.sharepoint.com/personal/ross_gregory-davies_ons_gov_uk/Documents/Shared with Everyone/ModeComparisonGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{02C68F95-D483-4D23-A18C-161FA29C64E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{03CC456A-D1DF-4455-8DAF-393D2590747C}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:40009_{02C68F95-D483-4D23-A18C-161FA29C64E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2523F311-C46B-41EA-8A17-CCA8FB8107C6}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="rVNXjq26yAF+3VxBYJGcnnAanOD2VI4aTfmXXgg1CtLvmhY8W4f1eKaVoCbmK76uHyBAOtDbqinpy7I9Fcw5oQ==" workbookSaltValue="Cqz6xeZv8cRXElNq8JYUJA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1023,7 +1023,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1209,8 +1209,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1334,6 +1352,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1379,14 +1436,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1777,14 +1844,14 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.21875" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="124.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="124.5546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1799,123 +1866,123 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N5y8sbMoItvJGWNppeRmLdOPvgSPW1Cf6bz11xvR7AHJprNZBM45cgu7jimsW7AitgQQJ0T5nNVTXUIr/K5pPw==" saltValue="TRNev0YyonGeXmppDlBVug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L80TAuRgq2Lbsw9jqq4nc9FcaOe7+khdj+IIlKUqHjUUl1DvkGey+K8c7JooIU28JBYj9h9InWn9Mg5k84SKiA==" saltValue="CkOxZPaUGLiU+Qk9AKg2tg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1925,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A286"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
